--- a/month.xlsx
+++ b/month.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\More\dz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\More\dz\excel1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95D6738D-10B8-4113-B231-7FFBB5011DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D88EAD-0F86-491A-93C3-F9BA76029100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="январь" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <sheet name="декабрь" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -959,8 +958,8 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,7 +1014,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1098,10 +1097,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/month.xlsx
+++ b/month.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\More\dz\excel1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D88EAD-0F86-491A-93C3-F9BA76029100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF80F662-51CC-43EF-A7A5-9640A797D400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="январь" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -637,6 +637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
@@ -932,7 +933,7 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,8 +959,8 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,7 +1016,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,10 +1101,10 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1120,7 @@
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="34"/>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -1131,9 +1132,17 @@
       <c r="I1" s="34"/>
       <c r="J1" s="34"/>
       <c r="K1" s="34"/>
-      <c r="L1" s="35"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L1" s="49"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="34"/>
       <c r="B2" s="34"/>
       <c r="C2" s="35"/>
@@ -1145,9 +1154,17 @@
       <c r="I2" s="34"/>
       <c r="J2" s="34"/>
       <c r="K2" s="34"/>
-      <c r="L2" s="35"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L2" s="49"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="37" t="s">
@@ -1173,9 +1190,17 @@
       </c>
       <c r="J3" s="34"/>
       <c r="K3" s="34"/>
-      <c r="L3" s="35"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="38" t="s">
         <v>74</v>
@@ -1189,9 +1214,17 @@
       <c r="I4" s="37"/>
       <c r="J4" s="34"/>
       <c r="K4" s="34"/>
-      <c r="L4" s="35"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
       <c r="B5" s="38" t="s">
         <v>75</v>
@@ -1205,9 +1238,17 @@
       <c r="I5" s="37"/>
       <c r="J5" s="34"/>
       <c r="K5" s="34"/>
-      <c r="L5" s="35"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
       <c r="B6" s="38" t="s">
         <v>76</v>
@@ -1221,9 +1262,17 @@
       <c r="I6" s="37"/>
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
-      <c r="L6" s="35"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
       <c r="B7" s="38" t="s">
         <v>77</v>
@@ -1237,9 +1286,17 @@
       <c r="I7" s="37"/>
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
-      <c r="L7" s="35"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="34"/>
       <c r="B8" s="34"/>
       <c r="C8" s="36" t="s">
@@ -1255,9 +1312,17 @@
       <c r="I8" s="37"/>
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -1269,9 +1334,17 @@
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
       <c r="K9" s="34"/>
-      <c r="L9" s="35"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="34"/>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -1283,9 +1356,17 @@
       <c r="I10" s="34"/>
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="34"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
@@ -1297,77 +1378,279 @@
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
-      <c r="L11" s="35"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="35"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="35"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+    </row>
+    <row r="28" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="29" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+    </row>
+    <row r="30" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1382,7 +1665,7 @@
   <dimension ref="B2:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,7 +1704,7 @@
   <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,7 +1772,7 @@
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B4" sqref="B4:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,7 +1898,7 @@
   <dimension ref="B3:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,7 +1927,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,7 +2018,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2000,7 +2283,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2088,7 +2371,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
